--- a/data_output/prism_passive/all_passive_out_emg_gl_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,127 +513,127 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.27287293737910823</v>
+        <v>0.27287293842760391</v>
       </c>
       <c r="C2">
-        <v>0.5080969608628132</v>
+        <v>0.50809696056750808</v>
       </c>
       <c r="D2">
-        <v>3.6988252901511616</v>
+        <v>3.6988252625924893</v>
       </c>
       <c r="E2">
-        <v>1.2174796671421193</v>
+        <v>1.2174796604892184</v>
       </c>
       <c r="F2">
-        <v>4.8562508924233772</v>
+        <v>4.8562508462030181</v>
       </c>
       <c r="G2">
-        <v>1.6459328311813635</v>
+        <v>1.6459328308459664</v>
       </c>
       <c r="H2">
-        <v>3.6229763284455081</v>
+        <v>3.6229763314287924</v>
       </c>
       <c r="I2">
-        <v>0.43914959671373782</v>
+        <v>0.4391495921902967</v>
       </c>
       <c r="J2">
-        <v>4.0249961538691004</v>
+        <v>4.0249961120026976</v>
       </c>
       <c r="K2">
-        <v>2.1306057852919591</v>
+        <v>2.1306057696535938</v>
       </c>
       <c r="L2">
-        <v>1.1227771468616461</v>
+        <v>1.1227771457055435</v>
       </c>
       <c r="N2">
-        <v>9.4398568750212783E-2</v>
+        <v>9.4398569285018247E-2</v>
       </c>
       <c r="O2">
-        <v>1.3280501033792038</v>
+        <v>1.3280500795594523</v>
       </c>
       <c r="P2">
-        <v>0.44502556063708426</v>
+        <v>0.44502555411247274</v>
       </c>
       <c r="Q2">
-        <v>0.69411686906993142</v>
+        <v>0.69411687934349986</v>
       </c>
       <c r="S2">
-        <v>1.4556470172209326</v>
+        <v>1.4556468603407211</v>
       </c>
       <c r="V2">
-        <v>1.6055434184095574</v>
+        <v>1.6055434081188467</v>
       </c>
       <c r="W2">
-        <v>0.76143199397477213</v>
+        <v>0.76143198554871705</v>
       </c>
       <c r="X2">
-        <v>0.41056092054601329</v>
+        <v>0.41056090538337908</v>
       </c>
       <c r="AA2">
-        <v>0.86205898132786807</v>
+        <v>0.86205897120530195</v>
       </c>
       <c r="AB2">
-        <v>0.18203424642198307</v>
+        <v>0.18203424597166168</v>
       </c>
       <c r="AC2">
-        <v>3.3038114628734219</v>
+        <v>3.3038114696107153</v>
       </c>
       <c r="AD2">
-        <v>0.47505003222441849</v>
+        <v>0.47505002742255559</v>
       </c>
       <c r="AE2">
-        <v>2.1758537232283794</v>
+        <v>2.1758537080375633</v>
       </c>
       <c r="AF2">
-        <v>1.7802711157893303</v>
+        <v>1.7802710994413158</v>
       </c>
       <c r="AG2">
-        <v>1.5689664271509951</v>
+        <v>1.5689664112110278</v>
       </c>
       <c r="AH2">
-        <v>0.40014252973615944</v>
+        <v>0.40014249713188271</v>
       </c>
       <c r="AI2">
-        <v>4.969631810724465</v>
+        <v>4.9696318262657746</v>
       </c>
       <c r="AJ2">
-        <v>3.3333987976896191</v>
+        <v>3.3333987931055886</v>
       </c>
       <c r="AK2">
-        <v>1.0099853641939311</v>
+        <v>1.0099853507544516</v>
       </c>
       <c r="AL2">
-        <v>1.1830003676868497</v>
+        <v>1.1830003591924503</v>
       </c>
       <c r="AM2">
-        <v>0.13681624259846173</v>
+        <v>0.13681624225895214</v>
       </c>
       <c r="AN2">
-        <v>3.4391211495575433</v>
+        <v>3.4391211244529551</v>
       </c>
       <c r="AO2">
-        <v>0.27454836769972629</v>
+        <v>0.27454836689743772</v>
       </c>
       <c r="AQ2">
-        <v>0.99779364517542102</v>
+        <v>0.99779364836851714</v>
       </c>
       <c r="AR2">
-        <v>1.0062229990609886</v>
+        <v>1.0062229756979471</v>
       </c>
       <c r="AS2">
-        <v>0.66942129118029059</v>
+        <v>0.66942125836583366</v>
       </c>
       <c r="AU2">
-        <v>1.2158722071290065</v>
+        <v>1.2158722292196216</v>
       </c>
       <c r="AV2">
-        <v>0.46005765967085049</v>
+        <v>0.4600576604664619</v>
       </c>
       <c r="AW2">
-        <v>0.22394451792222089</v>
+        <v>0.22394451694894363</v>
       </c>
       <c r="AX2">
-        <v>0.21348498615378747</v>
+        <v>0.21348498771225272</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -646,118 +641,118 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.3912741918858027</v>
+        <v>1.3912741685168684</v>
       </c>
       <c r="C3">
-        <v>0.7513993095881617</v>
+        <v>0.75139930427473922</v>
       </c>
       <c r="E3">
-        <v>2.6899072531958979</v>
+        <v>2.6899072228917373</v>
       </c>
       <c r="F3">
-        <v>1.9352457486382562</v>
+        <v>1.9352457488355352</v>
       </c>
       <c r="G3">
-        <v>2.1203407494281068</v>
+        <v>2.1203407222787454</v>
       </c>
       <c r="H3">
-        <v>3.8410638588019062</v>
+        <v>3.8410638260996643</v>
       </c>
       <c r="J3">
-        <v>2.729206729352212</v>
+        <v>2.7292066953098213</v>
       </c>
       <c r="K3">
-        <v>2.4543827893204293</v>
+        <v>2.4543828064779438</v>
       </c>
       <c r="L3">
-        <v>0.89159314175630688</v>
+        <v>0.89159314837927894</v>
       </c>
       <c r="M3">
-        <v>1.0808134043929416</v>
+        <v>1.0809397828232998</v>
       </c>
       <c r="N3">
-        <v>0.28587859367746782</v>
+        <v>0.28587858934978261</v>
       </c>
       <c r="P3">
-        <v>0.37890803417333285</v>
+        <v>0.37890802496570747</v>
       </c>
       <c r="Q3">
-        <v>0.61201993948069211</v>
+        <v>0.6120199402480393</v>
       </c>
       <c r="R3">
-        <v>0.55039406861378704</v>
+        <v>0.55039406598732965</v>
       </c>
       <c r="W3">
-        <v>0.20456296560350049</v>
+        <v>0.20456296867248044</v>
       </c>
       <c r="AA3">
-        <v>0.53444948632671807</v>
+        <v>0.53444948826492222</v>
       </c>
       <c r="AB3">
-        <v>3.805152324597922</v>
+        <v>3.8051523317441704</v>
       </c>
       <c r="AC3">
-        <v>1.372162465474684</v>
+        <v>1.372162463273817</v>
       </c>
       <c r="AD3">
-        <v>1.0163409190883026</v>
+        <v>1.0163409120326992</v>
       </c>
       <c r="AE3">
-        <v>1.9086501112048406</v>
+        <v>1.9086501260674094</v>
       </c>
       <c r="AF3">
-        <v>0.58708419481323249</v>
+        <v>0.58708418467042989</v>
       </c>
       <c r="AG3">
-        <v>1.0499315133595624</v>
+        <v>1.0499315153315463</v>
       </c>
       <c r="AH3">
-        <v>0.64130159283652</v>
+        <v>0.64130158642697876</v>
       </c>
       <c r="AI3">
-        <v>1.5987535888402398</v>
+        <v>1.5987535819100482</v>
       </c>
       <c r="AJ3">
-        <v>2.3011331999149074</v>
+        <v>2.3011331898517695</v>
       </c>
       <c r="AK3">
-        <v>0.52354864618095553</v>
+        <v>0.52354863903003102</v>
       </c>
       <c r="AL3">
-        <v>0.71843584291764728</v>
+        <v>0.71843583915698006</v>
       </c>
       <c r="AM3">
-        <v>0.41173587695907249</v>
+        <v>0.41173586391433881</v>
       </c>
       <c r="AN3">
-        <v>1.9446659235595796</v>
+        <v>1.9446659266568205</v>
       </c>
       <c r="AO3">
-        <v>0.26200445192532895</v>
+        <v>0.26200444829497538</v>
       </c>
       <c r="AP3">
-        <v>0.23604444415376333</v>
+        <v>0.23604444377779502</v>
       </c>
       <c r="AQ3">
-        <v>0.26769385432236359</v>
+        <v>0.26769385233263099</v>
       </c>
       <c r="AS3">
-        <v>0.30865263656017478</v>
+        <v>0.30865262639356217</v>
       </c>
       <c r="AT3">
-        <v>1.14805495629605</v>
+        <v>1.1480549530521911</v>
       </c>
       <c r="AU3">
-        <v>1.0334582222818534</v>
+        <v>1.0334582266347934</v>
       </c>
       <c r="AV3">
-        <v>0.21229920842422448</v>
+        <v>0.21229921093386683</v>
       </c>
       <c r="AW3">
-        <v>0.38354722480169412</v>
+        <v>0.38354722060085533</v>
       </c>
       <c r="AX3">
-        <v>0.91046851610186719</v>
+        <v>0.91046850877819596</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_gl_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,53 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>0.27287293842760391</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.50809696056750808</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.6988252625924893</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.2174796604892184</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>4.8562508462030181</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.6459328308459664</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3.6229763314287924</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4391495921902967</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.0249961120026976</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2.1306057696535938</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.1227771457055435</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>9.4398569285018247E-2</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.3280500795594523</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.44502555411247274</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.69411687934349986</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
         <v>1.4556468603407211</v>
@@ -570,52 +465,55 @@
         <v>0.41056090538337908</v>
       </c>
       <c r="AA2">
-        <v>0.86205897120530195</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.18203424597166168</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>3.3038114696107153</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.47505002742255559</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>2.1758537080375633</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.7802710994413158</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.5689664112110278</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.40014249713188271</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>4.9696318262657746</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>3.3333987931055886</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1.0099853507544516</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>1.1830003591924503</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.13681624225895214</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>3.4391211244529551</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.27454836689743772</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.99779364836851714</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>1.0062229756979471</v>
@@ -635,106 +533,115 @@
       <c r="AX2">
         <v>0.21348498771225272</v>
       </c>
+      <c r="AY2">
+        <v>0.76971188766747345</v>
+      </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>1.3912741685168684</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.75139930427473922</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2.6899072228917373</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.9352457488355352</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2.1203407222787454</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3.8410638260996643</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2.7292066953098213</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>2.4543828064779438</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.89159314837927894</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1.0809397828232998</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.28587858934978261</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.37890802496570747</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.6120199402480393</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.55039406598732965</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0.20456296867248044</v>
       </c>
       <c r="AA3">
-        <v>0.53444948826492222</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>3.8051523317441704</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>1.372162463273817</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>1.0163409120326992</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.9086501260674094</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.58708418467042989</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.0499315153315463</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.64130158642697876</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.5987535819100482</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>2.3011331898517695</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.52354863903003102</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.71843583915698006</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.41173586391433881</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>1.9446659266568205</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.26200444829497538</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.23604444377779502</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.26769385233263099</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>0.30865262639356217</v>
@@ -753,6 +660,9 @@
       </c>
       <c r="AX3">
         <v>0.91046850877819596</v>
+      </c>
+      <c r="AY3">
+        <v>1.0658004922642845</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_gl_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.27287293737910823</v>
-      </c>
-      <c r="C2">
-        <v>0.5080969608628132</v>
+        <v>0.89786533337632157</v>
       </c>
       <c r="D2">
-        <v>3.4327634232157997</v>
+        <v>3.4391211244529551</v>
       </c>
       <c r="E2">
-        <v>1.2174796671421193</v>
+        <v>0.99779364836851714</v>
       </c>
       <c r="F2">
         <v>4.8562508924233772</v>
@@ -645,14 +637,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1.3912741918858027</v>
-      </c>
       <c r="C3">
-        <v>0.7513993095881617</v>
+        <v>0.55039406598732965</v>
+      </c>
+      <c r="D3">
+        <v>1.9446659266568205</v>
       </c>
       <c r="E3">
-        <v>2.6899072531958979</v>
+        <v>0.20276339621892436</v>
       </c>
       <c r="F3">
         <v>1.9352457486382562</v>

--- a/data_output/prism_passive/all_passive_out_emg_gl_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.27287293737910823</v>
-      </c>
       <c r="C2">
-        <v>0.5080969608628132</v>
+        <v>0.89786533337632157</v>
       </c>
       <c r="D2">
-        <v>3.4327634232157997</v>
+        <v>0.13681624225895214</v>
       </c>
       <c r="E2">
-        <v>1.2174796671421193</v>
+        <v>3.4391211244529551</v>
       </c>
       <c r="F2">
         <v>4.8562508924233772</v>
@@ -646,13 +638,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.3912741918858027</v>
-      </c>
-      <c r="C3">
-        <v>0.7513993095881617</v>
+        <v>0.28587858934978261</v>
+      </c>
+      <c r="D3">
+        <v>0.41173586391433881</v>
       </c>
       <c r="E3">
-        <v>2.6899072531958979</v>
+        <v>1.9446659266568205</v>
       </c>
       <c r="F3">
         <v>1.9352457486382562</v>

--- a/data_output/prism_passive/all_passive_out_emg_gl_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -512,125 +512,128 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>0.27287293842760391</v>
+      </c>
       <c r="C2">
+        <v>0.50809696056750808</v>
+      </c>
+      <c r="D2">
+        <v>3.4327634084314171</v>
+      </c>
+      <c r="E2">
+        <v>1.2174796604892184</v>
+      </c>
+      <c r="F2">
+        <v>4.8562508462030181</v>
+      </c>
+      <c r="G2">
+        <v>1.6459328308459664</v>
+      </c>
+      <c r="H2">
+        <v>3.6229763314287924</v>
+      </c>
+      <c r="I2">
+        <v>0.4391495921902967</v>
+      </c>
+      <c r="J2">
+        <v>4.0249961120026976</v>
+      </c>
+      <c r="K2">
+        <v>2.1306057696535938</v>
+      </c>
+      <c r="L2">
+        <v>1.1227771457055435</v>
+      </c>
+      <c r="O2">
         <v>0.89786533337632157</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>0.44502555411247274</v>
+      </c>
+      <c r="Q2">
+        <v>0.69411687934349986</v>
+      </c>
+      <c r="S2">
+        <v>1.4556468603407211</v>
+      </c>
+      <c r="V2">
+        <v>1.6055434081188467</v>
+      </c>
+      <c r="W2">
+        <v>0.76143198554871705</v>
+      </c>
+      <c r="X2">
+        <v>0.41056090538337908</v>
+      </c>
+      <c r="AA2">
+        <v>0.86205897120530195</v>
+      </c>
+      <c r="AB2">
+        <v>0.18203670374273731</v>
+      </c>
+      <c r="AC2">
+        <v>3.3038114696107153</v>
+      </c>
+      <c r="AD2">
+        <v>0.47505002742255559</v>
+      </c>
+      <c r="AE2">
+        <v>2.1758537080375633</v>
+      </c>
+      <c r="AF2">
+        <v>1.7802710994413158</v>
+      </c>
+      <c r="AG2">
+        <v>1.5689664112110278</v>
+      </c>
+      <c r="AH2">
+        <v>0.65707499567708427</v>
+      </c>
+      <c r="AI2">
+        <v>4.9696318262657746</v>
+      </c>
+      <c r="AJ2">
+        <v>3.3333987931055886</v>
+      </c>
+      <c r="AK2">
+        <v>1.0099853507544516</v>
+      </c>
+      <c r="AL2">
+        <v>1.1830003591924503</v>
+      </c>
+      <c r="AM2">
         <v>0.13681624225895214</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>3.4391211244529551</v>
       </c>
-      <c r="F2">
-        <v>4.8562508924233772</v>
-      </c>
-      <c r="G2">
-        <v>1.6459328311813635</v>
-      </c>
-      <c r="H2">
-        <v>3.6229763284455081</v>
-      </c>
-      <c r="I2">
-        <v>0.43914959671373782</v>
-      </c>
-      <c r="J2">
-        <v>4.0249961538691004</v>
-      </c>
-      <c r="K2">
-        <v>2.1306057852919591</v>
-      </c>
-      <c r="L2">
-        <v>1.1227771468616461</v>
-      </c>
-      <c r="O2">
-        <v>0.89786535817433943</v>
-      </c>
-      <c r="P2">
-        <v>0.44502556063708426</v>
-      </c>
-      <c r="Q2">
-        <v>0.69411686906993142</v>
-      </c>
-      <c r="S2">
-        <v>1.4556470172209326</v>
-      </c>
-      <c r="V2">
-        <v>1.6055434184095574</v>
-      </c>
-      <c r="W2">
-        <v>0.76143199397477213</v>
-      </c>
-      <c r="X2">
-        <v>0.41056092054601329</v>
-      </c>
-      <c r="AA2">
-        <v>0.86205898132786807</v>
-      </c>
-      <c r="AB2">
-        <v>0.18203670419631848</v>
-      </c>
-      <c r="AC2">
-        <v>3.3038114628734219</v>
-      </c>
-      <c r="AD2">
-        <v>0.47505003222441849</v>
-      </c>
-      <c r="AE2">
-        <v>2.1758537232283794</v>
-      </c>
-      <c r="AF2">
-        <v>1.7802711157893303</v>
-      </c>
-      <c r="AG2">
-        <v>1.5689664271509951</v>
-      </c>
-      <c r="AH2">
-        <v>0.65707503569873382</v>
-      </c>
-      <c r="AI2">
-        <v>4.969631810724465</v>
-      </c>
-      <c r="AJ2">
-        <v>3.3333987976896191</v>
-      </c>
-      <c r="AK2">
-        <v>1.0099853641939311</v>
-      </c>
-      <c r="AL2">
-        <v>1.1830003676868497</v>
-      </c>
-      <c r="AM2">
-        <v>0.13681624259846173</v>
-      </c>
-      <c r="AN2">
-        <v>3.4391211495575433</v>
-      </c>
       <c r="AO2">
-        <v>0.27454836769972629</v>
+        <v>0.27454836689743772</v>
       </c>
       <c r="AQ2">
-        <v>0.99779364517542102</v>
+        <v>0.99779364836851714</v>
       </c>
       <c r="AR2">
-        <v>1.0062229990609886</v>
+        <v>1.0062229756979471</v>
       </c>
       <c r="AS2">
-        <v>0.66942129118029059</v>
+        <v>0.66942125836583366</v>
       </c>
       <c r="AU2">
-        <v>1.2158722071290065</v>
+        <v>1.2158722292196216</v>
       </c>
       <c r="AV2">
-        <v>0.46005765967085049</v>
+        <v>0.4600576604664619</v>
       </c>
       <c r="AW2">
-        <v>0.22394451792222089</v>
+        <v>0.22394451694894363</v>
       </c>
       <c r="AX2">
-        <v>0.21348498615378747</v>
+        <v>0.21348498771225272</v>
       </c>
       <c r="AY2">
-        <v>0.76971187661290597</v>
+        <v>0.76971188766747345</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -638,121 +641,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>1.3912741685168684</v>
+      </c>
+      <c r="C3">
+        <v>0.75139930427473922</v>
+      </c>
+      <c r="E3">
+        <v>2.6899072228917373</v>
+      </c>
+      <c r="F3">
+        <v>1.9352457488355352</v>
+      </c>
+      <c r="G3">
+        <v>2.1203407222787454</v>
+      </c>
+      <c r="H3">
+        <v>3.8410638260996643</v>
+      </c>
+      <c r="J3">
+        <v>2.7292066953098213</v>
+      </c>
+      <c r="K3">
+        <v>2.4543828064779438</v>
+      </c>
+      <c r="L3">
+        <v>0.89159314837927894</v>
+      </c>
+      <c r="M3">
+        <v>1.0809397828232998</v>
+      </c>
+      <c r="N3">
         <v>0.28587858934978261</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>0.37890802496570747</v>
+      </c>
+      <c r="Q3">
+        <v>0.6120199402480393</v>
+      </c>
+      <c r="R3">
+        <v>0.55039406598732965</v>
+      </c>
+      <c r="W3">
+        <v>0.17960943262654533</v>
+      </c>
+      <c r="AA3">
+        <v>0.53444948826492222</v>
+      </c>
+      <c r="AB3">
+        <v>3.8051523317441704</v>
+      </c>
+      <c r="AC3">
+        <v>1.5959084060323447</v>
+      </c>
+      <c r="AD3">
+        <v>1.0163409120326992</v>
+      </c>
+      <c r="AE3">
+        <v>1.9086501260674094</v>
+      </c>
+      <c r="AF3">
+        <v>0.58708418467042989</v>
+      </c>
+      <c r="AG3">
+        <v>1.0499315153315929</v>
+      </c>
+      <c r="AH3">
+        <v>0.36920584348228541</v>
+      </c>
+      <c r="AI3">
+        <v>1.5987535819100482</v>
+      </c>
+      <c r="AJ3">
+        <v>2.3011331898517695</v>
+      </c>
+      <c r="AK3">
+        <v>0.52354863903003102</v>
+      </c>
+      <c r="AL3">
+        <v>0.71843583915698006</v>
+      </c>
+      <c r="AM3">
         <v>0.41173586391433881</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>1.9446659266568205</v>
       </c>
-      <c r="F3">
-        <v>1.9352457486382562</v>
-      </c>
-      <c r="G3">
-        <v>2.1203407494281068</v>
-      </c>
-      <c r="H3">
-        <v>3.8410638588019062</v>
-      </c>
-      <c r="J3">
-        <v>2.729206729352212</v>
-      </c>
-      <c r="K3">
-        <v>2.4543827893204293</v>
-      </c>
-      <c r="L3">
-        <v>0.89159314175630688</v>
-      </c>
-      <c r="M3">
-        <v>1.0808134043929416</v>
-      </c>
-      <c r="N3">
-        <v>0.28587859367746782</v>
-      </c>
-      <c r="P3">
-        <v>0.37890803417333285</v>
-      </c>
-      <c r="Q3">
-        <v>0.61201993948069211</v>
-      </c>
-      <c r="R3">
-        <v>0.55039406861378704</v>
-      </c>
-      <c r="W3">
-        <v>0.17960942968501231</v>
-      </c>
-      <c r="AA3">
-        <v>0.53444948632671807</v>
-      </c>
-      <c r="AB3">
-        <v>3.805152324597922</v>
-      </c>
-      <c r="AC3">
-        <v>1.595908405686866</v>
-      </c>
-      <c r="AD3">
-        <v>1.0163409190883026</v>
-      </c>
-      <c r="AE3">
-        <v>1.9086501112048406</v>
-      </c>
-      <c r="AF3">
-        <v>0.58708419481323249</v>
-      </c>
-      <c r="AG3">
-        <v>1.0499315133595795</v>
-      </c>
-      <c r="AH3">
-        <v>0.36920585225771635</v>
-      </c>
-      <c r="AI3">
-        <v>1.5987535888402398</v>
-      </c>
-      <c r="AJ3">
-        <v>2.3011331999149074</v>
-      </c>
-      <c r="AK3">
-        <v>0.52354864618095553</v>
-      </c>
-      <c r="AL3">
-        <v>0.71843584291764728</v>
-      </c>
-      <c r="AM3">
-        <v>0.41173587695907249</v>
-      </c>
-      <c r="AN3">
-        <v>1.9446659235595796</v>
-      </c>
       <c r="AO3">
-        <v>0.26200445192532895</v>
+        <v>0.26200444829497538</v>
       </c>
       <c r="AP3">
-        <v>0.22160848246199349</v>
+        <v>0.221608476133795</v>
       </c>
       <c r="AQ3">
-        <v>0.20276339812388006</v>
+        <v>0.20276339621892436</v>
       </c>
       <c r="AS3">
-        <v>0.30865263656017478</v>
+        <v>0.30865262639356217</v>
       </c>
       <c r="AT3">
-        <v>1.14805495629605</v>
+        <v>1.1480549530521911</v>
       </c>
       <c r="AU3">
-        <v>1.0334582222818534</v>
+        <v>1.0334582266347934</v>
       </c>
       <c r="AV3">
-        <v>0.21229920842422448</v>
+        <v>0.21229921093386683</v>
       </c>
       <c r="AW3">
-        <v>0.38354722480169412</v>
+        <v>0.38354722060085533</v>
       </c>
       <c r="AX3">
-        <v>0.91046851610186719</v>
+        <v>0.91046850877819596</v>
       </c>
       <c r="AY3">
-        <v>1.0658005121580982</v>
+        <v>1.0658004922642845</v>
       </c>
     </row>
   </sheetData>
